--- a/breeding_patterns - win, sum/all male, female F1 mice/LL - Mice_Births_By_Sex_and_Season.xlsx
+++ b/breeding_patterns - win, sum/all male, female F1 mice/LL - Mice_Births_By_Sex_and_Season.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t xml:space="preserve">YearGroup</t>
   </si>
@@ -62,9 +62,6 @@
   </si>
   <si>
     <t xml:space="preserve">2018-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-2023</t>
   </si>
 </sst>
 </file>
@@ -550,17 +547,6 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>381</v>
-      </c>
-      <c r="C15" t="n">
-        <v>424</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -729,17 +715,6 @@
         <v>573</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>405</v>
-      </c>
-      <c r="C15" t="n">
-        <v>422</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -908,17 +883,6 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="n">
-        <v>786</v>
-      </c>
-      <c r="C15" t="n">
-        <v>846</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
